--- a/biology/Médecine/Maurice_Vallas/Maurice_Vallas.xlsx
+++ b/biology/Médecine/Maurice_Vallas/Maurice_Vallas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Vallas, né à Lyon le 14 décembre 1860 et mort le 4 novembre 1931, né Louis Maurice Valla, est un chirurgien français. Il a notamment mis au point l'opération du genou qui porte son nom[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Vallas, né à Lyon le 14 décembre 1860 et mort le 4 novembre 1931, né Louis Maurice Valla, est un chirurgien français. Il a notamment mis au point l'opération du genou qui porte son nom.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d'un négociant lyonnais. Il soutient en 1887 une thèse de médecine Sur les ulcérations tuberculeuses de la peau.
 Il est chirurgien-major à l'Hôtel-Dieu de Lyon de 1891 à 1931, et devient professeur de pathologie externe à la faculté de Lyon en 1930. Durant la Première Guerre mondiale, il est inspecteur général de la santé au front.
@@ -544,9 +558,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une rue du 4e arrondissement de Lyon porte le nom de « Professeur Maurice Vallas », auparavant rue Lassalle[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une rue du 4e arrondissement de Lyon porte le nom de « Professeur Maurice Vallas », auparavant rue Lassalle.
 </t>
         </is>
       </c>
